--- a/src/Data/FileExcel1068Team.xlsx
+++ b/src/Data/FileExcel1068Team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Workspace\PersonalWebsite\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97157FB6-131B-452D-B839-256449B9BF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12EB8ED-4922-49FA-9B25-CE6059995345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -240,25 +240,25 @@
     <t>gttk</t>
   </si>
   <si>
-    <t>Not Avariable Time</t>
-  </si>
-  <si>
     <t>Minutes</t>
   </si>
   <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Total Not Avariable Time</t>
-  </si>
-  <si>
-    <t>At lunch Time</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
     <t>Time left</t>
+  </si>
+  <si>
+    <t>Not available time</t>
+  </si>
+  <si>
+    <t>Total Not available time</t>
+  </si>
+  <si>
+    <t>Lunch Time</t>
   </si>
 </sst>
 </file>
@@ -588,55 +588,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>524806</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AEA183-182C-D27E-D82C-06FF61D423F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8705850" y="209550"/>
-          <a:ext cx="6668431" cy="1876687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -909,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1293,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF946-1B9A-478C-BD1B-B2168EB2BEBF}">
   <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1309,11 +1260,11 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="28"/>
       <c r="E1" s="25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="9">
         <f>SUM(A3:A282)</f>
@@ -1322,13 +1273,13 @@
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -1336,7 +1287,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="E3" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(F1,F2)</f>
@@ -1347,7 +1298,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="E4" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F4" s="9">
         <f>120-F3</f>
@@ -2472,6 +2423,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/Data/FileExcel1068Team.xlsx
+++ b/src/Data/FileExcel1068Team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Workspace\PersonalWebsite\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12EB8ED-4922-49FA-9B25-CE6059995345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19DFC0-A8DB-4944-99A9-C27C5510744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Danh sách Website</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Lunch Time</t>
+  </si>
+  <si>
+    <t>Chuyên sâu</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,6 +512,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -860,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1001,6 +1007,9 @@
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
+      <c r="F11" s="33" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1012,6 +1021,9 @@
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="F12" s="5">
+        <v>3131</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
@@ -1021,6 +1033,9 @@
         <v>21</v>
       </c>
       <c r="C13" s="13"/>
+      <c r="F13" s="5">
+        <v>782</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1032,6 +1047,9 @@
       <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="F14" s="5">
+        <v>4485</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
@@ -1045,6 +1063,9 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
+      <c r="F15" s="5">
+        <v>3042</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
@@ -1054,8 +1075,11 @@
         <v>24</v>
       </c>
       <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>18001091</v>
       </c>
@@ -1065,8 +1089,11 @@
       <c r="C17" s="22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <v>7298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>54</v>
       </c>
@@ -1077,7 +1104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>49</v>
       </c>
@@ -1088,7 +1115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>18008119</v>
       </c>
@@ -1099,7 +1126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>18008000</v>
       </c>
@@ -1110,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>18008168</v>
       </c>
@@ -1121,7 +1148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>18009000</v>
       </c>
@@ -1132,7 +1159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>19002125</v>
       </c>
@@ -1143,14 +1170,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
     </row>
-    <row r="28" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>33</v>
       </c>
@@ -1161,7 +1188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -1170,7 +1197,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1206,7 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1188,7 +1215,7 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -1244,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF946-1B9A-478C-BD1B-B2168EB2BEBF}">
   <dimension ref="A1:F282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/FileExcel1068Team.xlsx
+++ b/src/Data/FileExcel1068Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Workspace\PersonalWebsite\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19DFC0-A8DB-4944-99A9-C27C5510744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19FB9E4-39CA-487F-8F1F-48E03E029FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Danh sách Website</t>
   </si>
@@ -153,10 +153,6 @@
     <t>Giấy phép lái xe</t>
   </si>
   <si>
-    <t>TTGD/"Giấy phép lái xe"
-http://10.240.167.247:8068/GD_TrangChu/TinNong_ChiTiet.aspx?TinNongID=38342&amp;VipID=0</t>
-  </si>
-  <si>
     <t>Nghị định 100/2019</t>
   </si>
   <si>
@@ -219,15 +215,6 @@
 https://www.nowgoal6.com/</t>
   </si>
   <si>
-    <t>DO NOT DELETE THIS LINE*** version=1 ***
-gtnd:Tong dai 1068 gui thong tin theo yêu cầu Quy khach: De biet thong tin khac vui long goi 1068. Xin tran trong cam on!
-gttk:"ĐÃ SMS KH"
-ttnd:Cam on Quy khach da goi den Tong dai Thong tin Kinh te - Xa hoi 1068 cua Viettel. De cap nhat thong tin the thao trong nuoc va quoc te hoac tu van ve phap luat, Quy khach vui long goi 1069 (Gia cuoc: 3000 dong/ phut). Tran trong!
-tttk:"Đã SMS Truyền Thông"
-ct:Công ty
-cp:Cổ phần</t>
-  </si>
-  <si>
     <t>ttnd</t>
   </si>
   <si>
@@ -262,6 +249,9 @@
   </si>
   <si>
     <t>Chuyên sâu</t>
+  </si>
+  <si>
+    <t>TTGD/"Giấy phép lái xe"</t>
   </si>
 </sst>
 </file>
@@ -493,6 +483,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,9 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,16 +529,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>33619</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>490260</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>258347</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>30256</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -578,8 +568,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15576178" y="11206"/>
-          <a:ext cx="2271993" cy="5476315"/>
+          <a:off x="16184706" y="0"/>
+          <a:ext cx="2295380" cy="5444159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,7 +857,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -885,18 +875,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -916,14 +906,12 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="23" t="s">
         <v>57</v>
       </c>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -937,16 +925,16 @@
         <v>11</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -966,8 +954,8 @@
         <v>8</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="F5" s="27" t="s">
-        <v>42</v>
+      <c r="F5" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -979,15 +967,15 @@
         <v>32</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -1002,13 +990,13 @@
       <c r="C9" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="F11" s="33" t="s">
-        <v>69</v>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="F11" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="5">
         <v>4485</v>
@@ -1059,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1069,7 +1057,7 @@
     </row>
     <row r="16" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>5656</v>
+        <v>156</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>24</v>
@@ -1084,10 +1072,10 @@
         <v>18001091</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="F17" s="5">
         <v>7298</v>
@@ -1095,18 +1083,18 @@
     </row>
     <row r="18" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>25</v>
@@ -1164,18 +1152,18 @@
         <v>19002125</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -1192,35 +1180,35 @@
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>37</v>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C32" s="5"/>
     </row>
@@ -1229,7 +1217,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="5"/>
     </row>
@@ -1286,12 +1274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="29"/>
       <c r="E1" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="9">
         <f>SUM(A3:A282)</f>
@@ -1300,13 +1288,13 @@
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="9"/>
     </row>
@@ -1314,7 +1302,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="E3" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(F1,F2)</f>
@@ -1325,7 +1313,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="E4" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F4" s="9">
         <f>120-F3</f>

--- a/src/Data/FileExcel1068Team.xlsx
+++ b/src/Data/FileExcel1068Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Workspace\PersonalWebsite\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19FB9E4-39CA-487F-8F1F-48E03E029FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902BAEE1-B4FF-4C67-9649-0367BA4003BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1090,6 +1090,9 @@
       </c>
       <c r="C18" s="21" t="s">
         <v>50</v>
+      </c>
+      <c r="F18" s="5">
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
